--- a/Code/Results/Cases/Case_4_68/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_68/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.996352332715263</v>
+        <v>1.029686947197129</v>
       </c>
       <c r="D2">
-        <v>1.015506529917696</v>
+        <v>1.032986501582317</v>
       </c>
       <c r="E2">
-        <v>1.011470747795459</v>
+        <v>1.042840500166636</v>
       </c>
       <c r="F2">
-        <v>1.013214210571763</v>
+        <v>1.049611902960549</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044385723331016</v>
+        <v>1.031518270347117</v>
       </c>
       <c r="J2">
-        <v>1.018642694959304</v>
+        <v>1.03483234535068</v>
       </c>
       <c r="K2">
-        <v>1.026753979815975</v>
+        <v>1.035790151433865</v>
       </c>
       <c r="L2">
-        <v>1.022772556905855</v>
+        <v>1.04561605158057</v>
       </c>
       <c r="M2">
-        <v>1.024492469643823</v>
+        <v>1.052368477587838</v>
       </c>
       <c r="N2">
-        <v>1.010106297424483</v>
+        <v>1.015600469996057</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001249506712962</v>
+        <v>1.030702254613439</v>
       </c>
       <c r="D3">
-        <v>1.019169196684008</v>
+        <v>1.033742472218859</v>
       </c>
       <c r="E3">
-        <v>1.016170210987818</v>
+        <v>1.043877789915342</v>
       </c>
       <c r="F3">
-        <v>1.018494505015732</v>
+        <v>1.050793132461464</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045747235703369</v>
+        <v>1.031699517605085</v>
       </c>
       <c r="J3">
-        <v>1.021706166776064</v>
+        <v>1.035488453425146</v>
       </c>
       <c r="K3">
-        <v>1.02956254129006</v>
+        <v>1.036355149853742</v>
       </c>
       <c r="L3">
-        <v>1.026600288579931</v>
+        <v>1.046463662223838</v>
       </c>
       <c r="M3">
-        <v>1.028896090114615</v>
+        <v>1.053361035782542</v>
       </c>
       <c r="N3">
-        <v>1.011131251794664</v>
+        <v>1.015818769069912</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004346329358821</v>
+        <v>1.031359115764914</v>
       </c>
       <c r="D4">
-        <v>1.021483970126942</v>
+        <v>1.034230949566993</v>
       </c>
       <c r="E4">
-        <v>1.019147498510426</v>
+        <v>1.044549290760344</v>
       </c>
       <c r="F4">
-        <v>1.021840842299641</v>
+        <v>1.051558062660346</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04659172036673</v>
+        <v>1.031814712724328</v>
       </c>
       <c r="J4">
-        <v>1.023639505261048</v>
+        <v>1.035912317439308</v>
       </c>
       <c r="K4">
-        <v>1.031329836975041</v>
+        <v>1.036719396259619</v>
       </c>
       <c r="L4">
-        <v>1.029020194688037</v>
+        <v>1.047011825715351</v>
       </c>
       <c r="M4">
-        <v>1.031682624571365</v>
+        <v>1.054003309014135</v>
       </c>
       <c r="N4">
-        <v>1.01177796933021</v>
+        <v>1.015959752729004</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00563166972806</v>
+        <v>1.031635233739195</v>
       </c>
       <c r="D5">
-        <v>1.022444316243432</v>
+        <v>1.034436140355133</v>
       </c>
       <c r="E5">
-        <v>1.020384515502228</v>
+        <v>1.044831662514357</v>
       </c>
       <c r="F5">
-        <v>1.023231473460956</v>
+        <v>1.05187978198264</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046938204328134</v>
+        <v>1.031862641353756</v>
       </c>
       <c r="J5">
-        <v>1.024440965457987</v>
+        <v>1.036090346350398</v>
       </c>
       <c r="K5">
-        <v>1.032061195410424</v>
+        <v>1.036872202790693</v>
       </c>
       <c r="L5">
-        <v>1.03002439548275</v>
+        <v>1.04724220226197</v>
       </c>
       <c r="M5">
-        <v>1.032839592903054</v>
+        <v>1.054273325798512</v>
       </c>
       <c r="N5">
-        <v>1.012046030864609</v>
+        <v>1.016018957372081</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005846531419671</v>
+        <v>1.031681593611703</v>
       </c>
       <c r="D6">
-        <v>1.022604825065965</v>
+        <v>1.034470583086679</v>
       </c>
       <c r="E6">
-        <v>1.020591374356281</v>
+        <v>1.044879078236756</v>
       </c>
       <c r="F6">
-        <v>1.023464037366627</v>
+        <v>1.051933808439908</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046995885521723</v>
+        <v>1.031870659482139</v>
       </c>
       <c r="J6">
-        <v>1.024574881806342</v>
+        <v>1.036120228590179</v>
       </c>
       <c r="K6">
-        <v>1.032183322961684</v>
+        <v>1.036897840741838</v>
       </c>
       <c r="L6">
-        <v>1.030192249201104</v>
+        <v>1.047280879305379</v>
       </c>
       <c r="M6">
-        <v>1.033033019161316</v>
+        <v>1.054318663102477</v>
       </c>
       <c r="N6">
-        <v>1.012090819320653</v>
+        <v>1.016028894282937</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004363568368551</v>
+        <v>1.031362805370714</v>
       </c>
       <c r="D7">
-        <v>1.021496851995628</v>
+        <v>1.034233691986078</v>
       </c>
       <c r="E7">
-        <v>1.019164084343704</v>
+        <v>1.044553063539785</v>
       </c>
       <c r="F7">
-        <v>1.021859486646211</v>
+        <v>1.051562360929042</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046596383389244</v>
+        <v>1.031815355111951</v>
       </c>
       <c r="J7">
-        <v>1.023650258360406</v>
+        <v>1.035914696913249</v>
       </c>
       <c r="K7">
-        <v>1.031339654583597</v>
+        <v>1.036721439336543</v>
       </c>
       <c r="L7">
-        <v>1.029033663819295</v>
+        <v>1.047014904298825</v>
       </c>
       <c r="M7">
-        <v>1.031698140248458</v>
+        <v>1.054006916971626</v>
       </c>
       <c r="N7">
-        <v>1.011781566017862</v>
+        <v>1.01596054407949</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9980226729333802</v>
+        <v>1.030030098022241</v>
       </c>
       <c r="D8">
-        <v>1.01675604769103</v>
+        <v>1.033242126997777</v>
       </c>
       <c r="E8">
-        <v>1.0130724815371</v>
+        <v>1.043190993806177</v>
       </c>
       <c r="F8">
-        <v>1.015013700400309</v>
+        <v>1.050010981682896</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044853536867829</v>
+        <v>1.031579954915187</v>
       </c>
       <c r="J8">
-        <v>1.019688389141268</v>
+        <v>1.03505422113547</v>
       </c>
       <c r="K8">
-        <v>1.027713732115592</v>
+        <v>1.035981373514926</v>
       </c>
       <c r="L8">
-        <v>1.024078242082459</v>
+        <v>1.045902566989402</v>
       </c>
       <c r="M8">
-        <v>1.02599407062325</v>
+        <v>1.052703912735822</v>
       </c>
       <c r="N8">
-        <v>1.010456182397036</v>
+        <v>1.015674301100698</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9862658877922008</v>
+        <v>1.027680847730873</v>
       </c>
       <c r="D9">
-        <v>1.007958417971161</v>
+        <v>1.031489642223545</v>
       </c>
       <c r="E9">
-        <v>1.001823231720489</v>
+        <v>1.040793198012491</v>
       </c>
       <c r="F9">
-        <v>1.002379147400152</v>
+        <v>1.047281812775156</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041493106084619</v>
+        <v>1.031149210022305</v>
       </c>
       <c r="J9">
-        <v>1.01231313224313</v>
+        <v>1.033532743815243</v>
       </c>
       <c r="K9">
-        <v>1.02092368164312</v>
+        <v>1.034667003911144</v>
       </c>
       <c r="L9">
-        <v>1.014886797360005</v>
+        <v>1.043940218635538</v>
       </c>
       <c r="M9">
-        <v>1.01543374217248</v>
+        <v>1.050408021768254</v>
       </c>
       <c r="N9">
-        <v>1.007988063533056</v>
+        <v>1.015167839278109</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9779875372670703</v>
+        <v>1.026114102812421</v>
       </c>
       <c r="D10">
-        <v>1.001763688734631</v>
+        <v>1.030317853511226</v>
       </c>
       <c r="E10">
-        <v>0.9939351364508687</v>
+        <v>1.039196253063211</v>
       </c>
       <c r="F10">
-        <v>0.9935230540759811</v>
+        <v>1.045465424471224</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039043617498952</v>
+        <v>1.030851356800987</v>
       </c>
       <c r="J10">
-        <v>1.007102576021694</v>
+        <v>1.032514937785506</v>
       </c>
       <c r="K10">
-        <v>1.01610117208565</v>
+        <v>1.033783877330904</v>
       </c>
       <c r="L10">
-        <v>1.008414764146439</v>
+        <v>1.04263047053748</v>
       </c>
       <c r="M10">
-        <v>1.008010244861368</v>
+        <v>1.048877541620031</v>
       </c>
       <c r="N10">
-        <v>1.00624402791917</v>
+        <v>1.014828817033623</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9742865406745789</v>
+        <v>1.025435545240738</v>
       </c>
       <c r="D11">
-        <v>0.998995432433927</v>
+        <v>1.029809642644968</v>
       </c>
       <c r="E11">
-        <v>0.9904169407893465</v>
+        <v>1.038505135150291</v>
       </c>
       <c r="F11">
-        <v>0.9895735270927317</v>
+        <v>1.044679630587578</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037929721263337</v>
+        <v>1.030719852761021</v>
       </c>
       <c r="J11">
-        <v>1.004769583017609</v>
+        <v>1.032073391519784</v>
       </c>
       <c r="K11">
-        <v>1.013936318325886</v>
+        <v>1.033399847618626</v>
       </c>
       <c r="L11">
-        <v>1.005521871019574</v>
+        <v>1.042062976529541</v>
       </c>
       <c r="M11">
-        <v>1.004694786987556</v>
+        <v>1.048214852759457</v>
       </c>
       <c r="N11">
-        <v>1.00546312315435</v>
+        <v>1.014681690407014</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9728932238632212</v>
+        <v>1.025183476358597</v>
       </c>
       <c r="D12">
-        <v>0.9979535582855533</v>
+        <v>1.029620748106988</v>
       </c>
       <c r="E12">
-        <v>0.9890937430517232</v>
+        <v>1.038248478686742</v>
       </c>
       <c r="F12">
-        <v>0.9880881303515083</v>
+        <v>1.04438785868248</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037507631896918</v>
+        <v>1.030670626304502</v>
       </c>
       <c r="J12">
-        <v>1.003890806836162</v>
+        <v>1.031909257031311</v>
       </c>
       <c r="K12">
-        <v>1.013120070190645</v>
+        <v>1.033256957347855</v>
       </c>
       <c r="L12">
-        <v>1.004432915640055</v>
+        <v>1.041852129195152</v>
       </c>
       <c r="M12">
-        <v>1.003447157438172</v>
+        <v>1.047968703273455</v>
       </c>
       <c r="N12">
-        <v>1.005168978326848</v>
+        <v>1.014626991858783</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9731929556909608</v>
+        <v>1.025237547008217</v>
       </c>
       <c r="D13">
-        <v>0.998177672298653</v>
+        <v>1.029661272155768</v>
       </c>
       <c r="E13">
-        <v>0.9893783312607153</v>
+        <v>1.038303529858806</v>
       </c>
       <c r="F13">
-        <v>0.9884076031557877</v>
+        <v>1.044450439913797</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037598554578076</v>
+        <v>1.030681202736859</v>
       </c>
       <c r="J13">
-        <v>1.004079870555226</v>
+        <v>1.031944470070931</v>
       </c>
       <c r="K13">
-        <v>1.013295717133107</v>
+        <v>1.033287618856049</v>
       </c>
       <c r="L13">
-        <v>1.004667165996837</v>
+        <v>1.041897359144268</v>
       </c>
       <c r="M13">
-        <v>1.003715523683154</v>
+        <v>1.048021503056738</v>
       </c>
       <c r="N13">
-        <v>1.005232261790772</v>
+        <v>1.014638727106867</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.974171754901437</v>
+        <v>1.025414709607037</v>
       </c>
       <c r="D14">
-        <v>0.9989095929848744</v>
+        <v>1.029794031056938</v>
       </c>
       <c r="E14">
-        <v>0.9903079049472707</v>
+        <v>1.038483918715077</v>
       </c>
       <c r="F14">
-        <v>0.9894511252237167</v>
+        <v>1.044655510451714</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037895003385557</v>
+        <v>1.030715791436686</v>
       </c>
       <c r="J14">
-        <v>1.004697195975092</v>
+        <v>1.032059826651996</v>
       </c>
       <c r="K14">
-        <v>1.013869098023033</v>
+        <v>1.033388041250675</v>
       </c>
       <c r="L14">
-        <v>1.00543215645907</v>
+        <v>1.042045548941096</v>
       </c>
       <c r="M14">
-        <v>1.004591992119052</v>
+        <v>1.048194505913079</v>
       </c>
       <c r="N14">
-        <v>1.005438893640984</v>
+        <v>1.014677170010554</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9747723256528754</v>
+        <v>1.025523862354218</v>
       </c>
       <c r="D15">
-        <v>0.9993587262644917</v>
+        <v>1.029875811996725</v>
       </c>
       <c r="E15">
-        <v>0.9908784447214813</v>
+        <v>1.038595069595738</v>
       </c>
       <c r="F15">
-        <v>0.9900916047339251</v>
+        <v>1.044781875336376</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03807653973558</v>
+        <v>1.0307370523327</v>
       </c>
       <c r="J15">
-        <v>1.005075913372067</v>
+        <v>1.032130885147736</v>
       </c>
       <c r="K15">
-        <v>1.01422075128493</v>
+        <v>1.033449882409593</v>
       </c>
       <c r="L15">
-        <v>1.005901557869592</v>
+        <v>1.042136846304042</v>
       </c>
       <c r="M15">
-        <v>1.005129847608384</v>
+        <v>1.048301099029119</v>
       </c>
       <c r="N15">
-        <v>1.005565658644477</v>
+        <v>1.014700849439181</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9782306146532807</v>
+        <v>1.026159133323475</v>
       </c>
       <c r="D16">
-        <v>1.001945539246684</v>
+        <v>1.030351564596249</v>
       </c>
       <c r="E16">
-        <v>0.9941663849436483</v>
+        <v>1.039242128069376</v>
       </c>
       <c r="F16">
-        <v>0.9937826591804215</v>
+        <v>1.045517590039553</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039116392921672</v>
+        <v>1.030860030982355</v>
       </c>
       <c r="J16">
-        <v>1.007255735943994</v>
+        <v>1.032544224286783</v>
       </c>
       <c r="K16">
-        <v>1.016243180262098</v>
+        <v>1.033809329805581</v>
       </c>
       <c r="L16">
-        <v>1.008604781935808</v>
+        <v>1.042668125564248</v>
       </c>
       <c r="M16">
-        <v>1.008228073562093</v>
+        <v>1.048921522482442</v>
       </c>
       <c r="N16">
-        <v>1.006295293857287</v>
+        <v>1.014838574444134</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9803679835822217</v>
+        <v>1.026557582502362</v>
       </c>
       <c r="D17">
-        <v>1.003544693958159</v>
+        <v>1.030649772887876</v>
       </c>
       <c r="E17">
-        <v>0.9962006946095652</v>
+        <v>1.039648109720668</v>
       </c>
       <c r="F17">
-        <v>0.9960664663354252</v>
+        <v>1.045979275393948</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03975417807209</v>
+        <v>1.030936494699099</v>
       </c>
       <c r="J17">
-        <v>1.008602071867707</v>
+        <v>1.032803278978284</v>
       </c>
       <c r="K17">
-        <v>1.017490855998732</v>
+        <v>1.034034365503079</v>
       </c>
       <c r="L17">
-        <v>1.010275668968593</v>
+        <v>1.04300128541156</v>
       </c>
       <c r="M17">
-        <v>1.010143817961756</v>
+        <v>1.049310702699902</v>
       </c>
       <c r="N17">
-        <v>1.006745939443403</v>
+        <v>1.014924878003758</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9816035220374852</v>
+        <v>1.026789977038121</v>
       </c>
       <c r="D18">
-        <v>1.004469217200185</v>
+        <v>1.030823633714791</v>
       </c>
       <c r="E18">
-        <v>0.9973774432336928</v>
+        <v>1.039884947632442</v>
       </c>
       <c r="F18">
-        <v>0.9973875782894652</v>
+        <v>1.046248637589146</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040121073623798</v>
+        <v>1.030980850402949</v>
       </c>
       <c r="J18">
-        <v>1.009380005412579</v>
+        <v>1.03295430115332</v>
       </c>
       <c r="K18">
-        <v>1.018211249495793</v>
+        <v>1.034165467715646</v>
       </c>
       <c r="L18">
-        <v>1.011241599496221</v>
+        <v>1.043195576753813</v>
       </c>
       <c r="M18">
-        <v>1.011251558417166</v>
+        <v>1.04953770679795</v>
       </c>
       <c r="N18">
-        <v>1.007006326781259</v>
+        <v>1.014975185781284</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9820229493098828</v>
+        <v>1.026869215183237</v>
       </c>
       <c r="D19">
-        <v>1.004783079461432</v>
+        <v>1.030882902341656</v>
       </c>
       <c r="E19">
-        <v>0.9977770449615789</v>
+        <v>1.039965709294004</v>
       </c>
       <c r="F19">
-        <v>0.9978362111264971</v>
+        <v>1.046340494841382</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040245317975858</v>
+        <v>1.030995933105454</v>
       </c>
       <c r="J19">
-        <v>1.009644031264688</v>
+        <v>1.033005782232828</v>
       </c>
       <c r="K19">
-        <v>1.018455655182902</v>
+        <v>1.03421014348971</v>
       </c>
       <c r="L19">
-        <v>1.011569510023544</v>
+        <v>1.04326181911794</v>
       </c>
       <c r="M19">
-        <v>1.01162765460262</v>
+        <v>1.049615109651239</v>
       </c>
       <c r="N19">
-        <v>1.007094700060541</v>
+        <v>1.01499233406631</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9801398254398374</v>
+        <v>1.026514834140148</v>
       </c>
       <c r="D20">
-        <v>1.003373976736239</v>
+        <v>1.030617786129836</v>
       </c>
       <c r="E20">
-        <v>0.9959834559292748</v>
+        <v>1.039604548041019</v>
       </c>
       <c r="F20">
-        <v>0.995822580432604</v>
+        <v>1.045929733796611</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039686281056824</v>
+        <v>1.030928316131254</v>
       </c>
       <c r="J20">
-        <v>1.008458388806019</v>
+        <v>1.032775493140128</v>
       </c>
       <c r="K20">
-        <v>1.017357757146839</v>
+        <v>1.034010237570242</v>
       </c>
       <c r="L20">
-        <v>1.010097301024552</v>
+        <v>1.042965544149853</v>
       </c>
       <c r="M20">
-        <v>1.009939284613848</v>
+        <v>1.049268947154558</v>
       </c>
       <c r="N20">
-        <v>1.006697846082131</v>
+        <v>1.014915621719511</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9738840458263524</v>
+        <v>1.025362540258172</v>
       </c>
       <c r="D21">
-        <v>0.9986944426105218</v>
+        <v>1.02975494024343</v>
       </c>
       <c r="E21">
-        <v>0.9900346291018406</v>
+        <v>1.03843079716134</v>
       </c>
       <c r="F21">
-        <v>0.989144350468151</v>
+        <v>1.044595119340768</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037807939645218</v>
+        <v>1.030705616413812</v>
       </c>
       <c r="J21">
-        <v>1.004515751359682</v>
+        <v>1.032025860451486</v>
       </c>
       <c r="K21">
-        <v>1.013700591462689</v>
+        <v>1.033358476105955</v>
       </c>
       <c r="L21">
-        <v>1.005207290396913</v>
+        <v>1.042001912252338</v>
       </c>
       <c r="M21">
-        <v>1.004334346975363</v>
+        <v>1.04814356081209</v>
       </c>
       <c r="N21">
-        <v>1.005378160227247</v>
+        <v>1.014665850890287</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.96984254410644</v>
+        <v>1.024637917658455</v>
       </c>
       <c r="D22">
-        <v>0.9956730326617106</v>
+        <v>1.029211726939931</v>
       </c>
       <c r="E22">
-        <v>0.9861990381924135</v>
+        <v>1.037693134479832</v>
       </c>
       <c r="F22">
-        <v>0.9848385938083453</v>
+        <v>1.043756612741451</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036578518471353</v>
+        <v>1.03056339786177</v>
       </c>
       <c r="J22">
-        <v>1.001965912259512</v>
+        <v>1.031553816082289</v>
       </c>
       <c r="K22">
-        <v>1.011330697736299</v>
+        <v>1.032947273164381</v>
       </c>
       <c r="L22">
-        <v>1.0020489437659</v>
+        <v>1.041395721598093</v>
       </c>
       <c r="M22">
-        <v>1.00071650558491</v>
+        <v>1.047436001050998</v>
       </c>
       <c r="N22">
-        <v>1.004524683229246</v>
+        <v>1.014508525618929</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.971995676958802</v>
+        <v>1.025022066221062</v>
       </c>
       <c r="D23">
-        <v>0.997282500737396</v>
+        <v>1.029499761490343</v>
       </c>
       <c r="E23">
-        <v>0.988241738121569</v>
+        <v>1.038084153009295</v>
       </c>
       <c r="F23">
-        <v>0.9871316881198468</v>
+        <v>1.044201062456588</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037234969147643</v>
+        <v>1.030638998875836</v>
       </c>
       <c r="J23">
-        <v>1.003324590707392</v>
+        <v>1.031804124006916</v>
       </c>
       <c r="K23">
-        <v>1.012593920042095</v>
+        <v>1.033165393596585</v>
       </c>
       <c r="L23">
-        <v>1.003731476732265</v>
+        <v>1.041717104799173</v>
       </c>
       <c r="M23">
-        <v>1.002643617471215</v>
+        <v>1.047811090490071</v>
       </c>
       <c r="N23">
-        <v>1.004979454839827</v>
+        <v>1.014591953659368</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.980242954666769</v>
+        <v>1.026534150328385</v>
       </c>
       <c r="D24">
-        <v>1.003451141901731</v>
+        <v>1.030632239813064</v>
       </c>
       <c r="E24">
-        <v>0.9960816470438918</v>
+        <v>1.039624231578539</v>
       </c>
       <c r="F24">
-        <v>0.9959328158668961</v>
+        <v>1.045952119298708</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039716976573454</v>
+        <v>1.0309320124288</v>
       </c>
       <c r="J24">
-        <v>1.008523335697187</v>
+        <v>1.032788048611571</v>
       </c>
       <c r="K24">
-        <v>1.017417921472443</v>
+        <v>1.034021140430479</v>
       </c>
       <c r="L24">
-        <v>1.010177924552526</v>
+        <v>1.042981694196038</v>
       </c>
       <c r="M24">
-        <v>1.010031734277297</v>
+        <v>1.049287814682203</v>
       </c>
       <c r="N24">
-        <v>1.006719585008566</v>
+        <v>1.014919804333627</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9893791745016902</v>
+        <v>1.02828828661135</v>
       </c>
       <c r="D25">
-        <v>1.010288482906375</v>
+        <v>1.031943315580443</v>
       </c>
       <c r="E25">
-        <v>1.00479663339818</v>
+        <v>1.041412806856019</v>
       </c>
       <c r="F25">
-        <v>1.005718005422621</v>
+        <v>1.047986828825878</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042397586222763</v>
+        <v>1.031262454025071</v>
       </c>
       <c r="J25">
-        <v>1.014269335705602</v>
+        <v>1.033926697956703</v>
       </c>
       <c r="K25">
-        <v>1.022729155641052</v>
+        <v>1.035008014859684</v>
       </c>
       <c r="L25">
-        <v>1.017320941372549</v>
+        <v>1.044447800534072</v>
       </c>
       <c r="M25">
-        <v>1.018228200508466</v>
+        <v>1.051001544546856</v>
       </c>
       <c r="N25">
-        <v>1.008642778148623</v>
+        <v>1.015299015750895</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_68/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_68/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029686947197129</v>
+        <v>0.9963523327152621</v>
       </c>
       <c r="D2">
-        <v>1.032986501582317</v>
+        <v>1.015506529917696</v>
       </c>
       <c r="E2">
-        <v>1.042840500166636</v>
+        <v>1.011470747795457</v>
       </c>
       <c r="F2">
-        <v>1.049611902960549</v>
+        <v>1.013214210571762</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031518270347117</v>
+        <v>1.044385723331015</v>
       </c>
       <c r="J2">
-        <v>1.03483234535068</v>
+        <v>1.018642694959303</v>
       </c>
       <c r="K2">
-        <v>1.035790151433865</v>
+        <v>1.026753979815974</v>
       </c>
       <c r="L2">
-        <v>1.04561605158057</v>
+        <v>1.022772556905853</v>
       </c>
       <c r="M2">
-        <v>1.052368477587838</v>
+        <v>1.024492469643822</v>
       </c>
       <c r="N2">
-        <v>1.015600469996057</v>
+        <v>1.010106297424482</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030702254613439</v>
+        <v>1.001249506712961</v>
       </c>
       <c r="D3">
-        <v>1.033742472218859</v>
+        <v>1.019169196684006</v>
       </c>
       <c r="E3">
-        <v>1.043877789915342</v>
+        <v>1.016170210987817</v>
       </c>
       <c r="F3">
-        <v>1.050793132461464</v>
+        <v>1.018494505015732</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031699517605085</v>
+        <v>1.045747235703368</v>
       </c>
       <c r="J3">
-        <v>1.035488453425146</v>
+        <v>1.021706166776063</v>
       </c>
       <c r="K3">
-        <v>1.036355149853742</v>
+        <v>1.029562541290059</v>
       </c>
       <c r="L3">
-        <v>1.046463662223838</v>
+        <v>1.02660028857993</v>
       </c>
       <c r="M3">
-        <v>1.053361035782542</v>
+        <v>1.028896090114615</v>
       </c>
       <c r="N3">
-        <v>1.015818769069912</v>
+        <v>1.011131251794663</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031359115764914</v>
+        <v>1.004346329358821</v>
       </c>
       <c r="D4">
-        <v>1.034230949566993</v>
+        <v>1.021483970126943</v>
       </c>
       <c r="E4">
-        <v>1.044549290760344</v>
+        <v>1.019147498510427</v>
       </c>
       <c r="F4">
-        <v>1.051558062660346</v>
+        <v>1.021840842299641</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031814712724328</v>
+        <v>1.04659172036673</v>
       </c>
       <c r="J4">
-        <v>1.035912317439308</v>
+        <v>1.023639505261049</v>
       </c>
       <c r="K4">
-        <v>1.036719396259619</v>
+        <v>1.031329836975042</v>
       </c>
       <c r="L4">
-        <v>1.047011825715351</v>
+        <v>1.029020194688038</v>
       </c>
       <c r="M4">
-        <v>1.054003309014135</v>
+        <v>1.031682624571366</v>
       </c>
       <c r="N4">
-        <v>1.015959752729004</v>
+        <v>1.01177796933021</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031635233739195</v>
+        <v>1.005631669728061</v>
       </c>
       <c r="D5">
-        <v>1.034436140355133</v>
+        <v>1.022444316243432</v>
       </c>
       <c r="E5">
-        <v>1.044831662514357</v>
+        <v>1.020384515502229</v>
       </c>
       <c r="F5">
-        <v>1.05187978198264</v>
+        <v>1.023231473460957</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031862641353756</v>
+        <v>1.046938204328135</v>
       </c>
       <c r="J5">
-        <v>1.036090346350398</v>
+        <v>1.024440965457988</v>
       </c>
       <c r="K5">
-        <v>1.036872202790693</v>
+        <v>1.032061195410424</v>
       </c>
       <c r="L5">
-        <v>1.04724220226197</v>
+        <v>1.030024395482751</v>
       </c>
       <c r="M5">
-        <v>1.054273325798512</v>
+        <v>1.032839592903055</v>
       </c>
       <c r="N5">
-        <v>1.016018957372081</v>
+        <v>1.012046030864609</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031681593611703</v>
+        <v>1.005846531419672</v>
       </c>
       <c r="D6">
-        <v>1.034470583086679</v>
+        <v>1.022604825065966</v>
       </c>
       <c r="E6">
-        <v>1.044879078236756</v>
+        <v>1.020591374356282</v>
       </c>
       <c r="F6">
-        <v>1.051933808439908</v>
+        <v>1.023464037366629</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031870659482139</v>
+        <v>1.046995885521723</v>
       </c>
       <c r="J6">
-        <v>1.036120228590179</v>
+        <v>1.024574881806342</v>
       </c>
       <c r="K6">
-        <v>1.036897840741838</v>
+        <v>1.032183322961685</v>
       </c>
       <c r="L6">
-        <v>1.047280879305379</v>
+        <v>1.030192249201105</v>
       </c>
       <c r="M6">
-        <v>1.054318663102477</v>
+        <v>1.033033019161317</v>
       </c>
       <c r="N6">
-        <v>1.016028894282937</v>
+        <v>1.012090819320653</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031362805370714</v>
+        <v>1.004363568368551</v>
       </c>
       <c r="D7">
-        <v>1.034233691986078</v>
+        <v>1.021496851995628</v>
       </c>
       <c r="E7">
-        <v>1.044553063539785</v>
+        <v>1.019164084343704</v>
       </c>
       <c r="F7">
-        <v>1.051562360929042</v>
+        <v>1.021859486646211</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031815355111951</v>
+        <v>1.046596383389244</v>
       </c>
       <c r="J7">
-        <v>1.035914696913249</v>
+        <v>1.023650258360406</v>
       </c>
       <c r="K7">
-        <v>1.036721439336543</v>
+        <v>1.031339654583596</v>
       </c>
       <c r="L7">
-        <v>1.047014904298825</v>
+        <v>1.029033663819295</v>
       </c>
       <c r="M7">
-        <v>1.054006916971626</v>
+        <v>1.031698140248458</v>
       </c>
       <c r="N7">
-        <v>1.01596054407949</v>
+        <v>1.011781566017862</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030030098022241</v>
+        <v>0.9980226729333805</v>
       </c>
       <c r="D8">
-        <v>1.033242126997777</v>
+        <v>1.01675604769103</v>
       </c>
       <c r="E8">
-        <v>1.043190993806177</v>
+        <v>1.013072481537101</v>
       </c>
       <c r="F8">
-        <v>1.050010981682896</v>
+        <v>1.015013700400309</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031579954915187</v>
+        <v>1.044853536867829</v>
       </c>
       <c r="J8">
-        <v>1.03505422113547</v>
+        <v>1.019688389141269</v>
       </c>
       <c r="K8">
-        <v>1.035981373514926</v>
+        <v>1.027713732115592</v>
       </c>
       <c r="L8">
-        <v>1.045902566989402</v>
+        <v>1.02407824208246</v>
       </c>
       <c r="M8">
-        <v>1.052703912735822</v>
+        <v>1.02599407062325</v>
       </c>
       <c r="N8">
-        <v>1.015674301100698</v>
+        <v>1.010456182397036</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027680847730873</v>
+        <v>0.9862658877921999</v>
       </c>
       <c r="D9">
-        <v>1.031489642223545</v>
+        <v>1.00795841797116</v>
       </c>
       <c r="E9">
-        <v>1.040793198012491</v>
+        <v>1.001823231720488</v>
       </c>
       <c r="F9">
-        <v>1.047281812775156</v>
+        <v>1.002379147400151</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031149210022305</v>
+        <v>1.041493106084619</v>
       </c>
       <c r="J9">
-        <v>1.033532743815243</v>
+        <v>1.01231313224313</v>
       </c>
       <c r="K9">
-        <v>1.034667003911144</v>
+        <v>1.02092368164312</v>
       </c>
       <c r="L9">
-        <v>1.043940218635538</v>
+        <v>1.014886797360004</v>
       </c>
       <c r="M9">
-        <v>1.050408021768254</v>
+        <v>1.015433742172479</v>
       </c>
       <c r="N9">
-        <v>1.015167839278109</v>
+        <v>1.007988063533056</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026114102812421</v>
+        <v>0.9779875372670702</v>
       </c>
       <c r="D10">
-        <v>1.030317853511226</v>
+        <v>1.001763688734631</v>
       </c>
       <c r="E10">
-        <v>1.039196253063211</v>
+        <v>0.9939351364508687</v>
       </c>
       <c r="F10">
-        <v>1.045465424471224</v>
+        <v>0.9935230540759813</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030851356800987</v>
+        <v>1.039043617498952</v>
       </c>
       <c r="J10">
-        <v>1.032514937785506</v>
+        <v>1.007102576021694</v>
       </c>
       <c r="K10">
-        <v>1.033783877330904</v>
+        <v>1.016101172085649</v>
       </c>
       <c r="L10">
-        <v>1.04263047053748</v>
+        <v>1.008414764146439</v>
       </c>
       <c r="M10">
-        <v>1.048877541620031</v>
+        <v>1.008010244861368</v>
       </c>
       <c r="N10">
-        <v>1.014828817033623</v>
+        <v>1.00624402791917</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025435545240738</v>
+        <v>0.9742865406745791</v>
       </c>
       <c r="D11">
-        <v>1.029809642644968</v>
+        <v>0.9989954324339272</v>
       </c>
       <c r="E11">
-        <v>1.038505135150291</v>
+        <v>0.9904169407893465</v>
       </c>
       <c r="F11">
-        <v>1.044679630587578</v>
+        <v>0.9895735270927319</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030719852761021</v>
+        <v>1.037929721263337</v>
       </c>
       <c r="J11">
-        <v>1.032073391519784</v>
+        <v>1.004769583017609</v>
       </c>
       <c r="K11">
-        <v>1.033399847618626</v>
+        <v>1.013936318325886</v>
       </c>
       <c r="L11">
-        <v>1.042062976529541</v>
+        <v>1.005521871019575</v>
       </c>
       <c r="M11">
-        <v>1.048214852759457</v>
+        <v>1.004694786987556</v>
       </c>
       <c r="N11">
-        <v>1.014681690407014</v>
+        <v>1.00546312315435</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025183476358597</v>
+        <v>0.9728932238632213</v>
       </c>
       <c r="D12">
-        <v>1.029620748106988</v>
+        <v>0.997953558285553</v>
       </c>
       <c r="E12">
-        <v>1.038248478686742</v>
+        <v>0.9890937430517234</v>
       </c>
       <c r="F12">
-        <v>1.04438785868248</v>
+        <v>0.9880881303515089</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030670626304502</v>
+        <v>1.037507631896918</v>
       </c>
       <c r="J12">
-        <v>1.031909257031311</v>
+        <v>1.003890806836162</v>
       </c>
       <c r="K12">
-        <v>1.033256957347855</v>
+        <v>1.013120070190644</v>
       </c>
       <c r="L12">
-        <v>1.041852129195152</v>
+        <v>1.004432915640055</v>
       </c>
       <c r="M12">
-        <v>1.047968703273455</v>
+        <v>1.003447157438173</v>
       </c>
       <c r="N12">
-        <v>1.014626991858783</v>
+        <v>1.005168978326848</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025237547008217</v>
+        <v>0.973192955690961</v>
       </c>
       <c r="D13">
-        <v>1.029661272155768</v>
+        <v>0.9981776722986528</v>
       </c>
       <c r="E13">
-        <v>1.038303529858806</v>
+        <v>0.9893783312607157</v>
       </c>
       <c r="F13">
-        <v>1.044450439913797</v>
+        <v>0.988407603155788</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030681202736859</v>
+        <v>1.037598554578076</v>
       </c>
       <c r="J13">
-        <v>1.031944470070931</v>
+        <v>1.004079870555227</v>
       </c>
       <c r="K13">
-        <v>1.033287618856049</v>
+        <v>1.013295717133106</v>
       </c>
       <c r="L13">
-        <v>1.041897359144268</v>
+        <v>1.004667165996837</v>
       </c>
       <c r="M13">
-        <v>1.048021503056738</v>
+        <v>1.003715523683155</v>
       </c>
       <c r="N13">
-        <v>1.014638727106867</v>
+        <v>1.005232261790772</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025414709607037</v>
+        <v>0.9741717549014373</v>
       </c>
       <c r="D14">
-        <v>1.029794031056938</v>
+        <v>0.9989095929848745</v>
       </c>
       <c r="E14">
-        <v>1.038483918715077</v>
+        <v>0.9903079049472703</v>
       </c>
       <c r="F14">
-        <v>1.044655510451714</v>
+        <v>0.9894511252237163</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030715791436686</v>
+        <v>1.037895003385558</v>
       </c>
       <c r="J14">
-        <v>1.032059826651996</v>
+        <v>1.004697195975092</v>
       </c>
       <c r="K14">
-        <v>1.033388041250675</v>
+        <v>1.013869098023033</v>
       </c>
       <c r="L14">
-        <v>1.042045548941096</v>
+        <v>1.00543215645907</v>
       </c>
       <c r="M14">
-        <v>1.048194505913079</v>
+        <v>1.004591992119052</v>
       </c>
       <c r="N14">
-        <v>1.014677170010554</v>
+        <v>1.005438893640984</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025523862354218</v>
+        <v>0.9747723256528762</v>
       </c>
       <c r="D15">
-        <v>1.029875811996725</v>
+        <v>0.9993587262644922</v>
       </c>
       <c r="E15">
-        <v>1.038595069595738</v>
+        <v>0.9908784447214822</v>
       </c>
       <c r="F15">
-        <v>1.044781875336376</v>
+        <v>0.9900916047339259</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0307370523327</v>
+        <v>1.03807653973558</v>
       </c>
       <c r="J15">
-        <v>1.032130885147736</v>
+        <v>1.005075913372068</v>
       </c>
       <c r="K15">
-        <v>1.033449882409593</v>
+        <v>1.01422075128493</v>
       </c>
       <c r="L15">
-        <v>1.042136846304042</v>
+        <v>1.005901557869593</v>
       </c>
       <c r="M15">
-        <v>1.048301099029119</v>
+        <v>1.005129847608385</v>
       </c>
       <c r="N15">
-        <v>1.014700849439181</v>
+        <v>1.005565658644477</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026159133323475</v>
+        <v>0.9782306146532805</v>
       </c>
       <c r="D16">
-        <v>1.030351564596249</v>
+        <v>1.001945539246684</v>
       </c>
       <c r="E16">
-        <v>1.039242128069376</v>
+        <v>0.994166384943648</v>
       </c>
       <c r="F16">
-        <v>1.045517590039553</v>
+        <v>0.9937826591804212</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030860030982355</v>
+        <v>1.039116392921672</v>
       </c>
       <c r="J16">
-        <v>1.032544224286783</v>
+        <v>1.007255735943994</v>
       </c>
       <c r="K16">
-        <v>1.033809329805581</v>
+        <v>1.016243180262098</v>
       </c>
       <c r="L16">
-        <v>1.042668125564248</v>
+        <v>1.008604781935807</v>
       </c>
       <c r="M16">
-        <v>1.048921522482442</v>
+        <v>1.008228073562093</v>
       </c>
       <c r="N16">
-        <v>1.014838574444134</v>
+        <v>1.006295293857287</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026557582502362</v>
+        <v>0.9803679835822213</v>
       </c>
       <c r="D17">
-        <v>1.030649772887876</v>
+        <v>1.003544693958159</v>
       </c>
       <c r="E17">
-        <v>1.039648109720668</v>
+        <v>0.9962006946095647</v>
       </c>
       <c r="F17">
-        <v>1.045979275393948</v>
+        <v>0.9960664663354252</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030936494699099</v>
+        <v>1.039754178072089</v>
       </c>
       <c r="J17">
-        <v>1.032803278978284</v>
+        <v>1.008602071867706</v>
       </c>
       <c r="K17">
-        <v>1.034034365503079</v>
+        <v>1.017490855998732</v>
       </c>
       <c r="L17">
-        <v>1.04300128541156</v>
+        <v>1.010275668968593</v>
       </c>
       <c r="M17">
-        <v>1.049310702699902</v>
+        <v>1.010143817961756</v>
       </c>
       <c r="N17">
-        <v>1.014924878003758</v>
+        <v>1.006745939443402</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026789977038121</v>
+        <v>0.9816035220374841</v>
       </c>
       <c r="D18">
-        <v>1.030823633714791</v>
+        <v>1.004469217200184</v>
       </c>
       <c r="E18">
-        <v>1.039884947632442</v>
+        <v>0.9973774432336918</v>
       </c>
       <c r="F18">
-        <v>1.046248637589146</v>
+        <v>0.9973875782894641</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030980850402949</v>
+        <v>1.040121073623797</v>
       </c>
       <c r="J18">
-        <v>1.03295430115332</v>
+        <v>1.009380005412578</v>
       </c>
       <c r="K18">
-        <v>1.034165467715646</v>
+        <v>1.018211249495792</v>
       </c>
       <c r="L18">
-        <v>1.043195576753813</v>
+        <v>1.01124159949622</v>
       </c>
       <c r="M18">
-        <v>1.04953770679795</v>
+        <v>1.011251558417164</v>
       </c>
       <c r="N18">
-        <v>1.014975185781284</v>
+        <v>1.007006326781258</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026869215183237</v>
+        <v>0.9820229493098834</v>
       </c>
       <c r="D19">
-        <v>1.030882902341656</v>
+        <v>1.004783079461432</v>
       </c>
       <c r="E19">
-        <v>1.039965709294004</v>
+        <v>0.9977770449615794</v>
       </c>
       <c r="F19">
-        <v>1.046340494841382</v>
+        <v>0.9978362111264976</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030995933105454</v>
+        <v>1.040245317975858</v>
       </c>
       <c r="J19">
-        <v>1.033005782232828</v>
+        <v>1.009644031264689</v>
       </c>
       <c r="K19">
-        <v>1.03421014348971</v>
+        <v>1.018455655182902</v>
       </c>
       <c r="L19">
-        <v>1.04326181911794</v>
+        <v>1.011569510023544</v>
       </c>
       <c r="M19">
-        <v>1.049615109651239</v>
+        <v>1.01162765460262</v>
       </c>
       <c r="N19">
-        <v>1.01499233406631</v>
+        <v>1.007094700060541</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026514834140148</v>
+        <v>0.9801398254398381</v>
       </c>
       <c r="D20">
-        <v>1.030617786129836</v>
+        <v>1.00337397673624</v>
       </c>
       <c r="E20">
-        <v>1.039604548041019</v>
+        <v>0.9959834559292756</v>
       </c>
       <c r="F20">
-        <v>1.045929733796611</v>
+        <v>0.9958225804326047</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030928316131254</v>
+        <v>1.039686281056825</v>
       </c>
       <c r="J20">
-        <v>1.032775493140128</v>
+        <v>1.00845838880602</v>
       </c>
       <c r="K20">
-        <v>1.034010237570242</v>
+        <v>1.01735775714684</v>
       </c>
       <c r="L20">
-        <v>1.042965544149853</v>
+        <v>1.010097301024552</v>
       </c>
       <c r="M20">
-        <v>1.049268947154558</v>
+        <v>1.009939284613849</v>
       </c>
       <c r="N20">
-        <v>1.014915621719511</v>
+        <v>1.006697846082131</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025362540258172</v>
+        <v>0.9738840458263525</v>
       </c>
       <c r="D21">
-        <v>1.02975494024343</v>
+        <v>0.9986944426105219</v>
       </c>
       <c r="E21">
-        <v>1.03843079716134</v>
+        <v>0.990034629101841</v>
       </c>
       <c r="F21">
-        <v>1.044595119340768</v>
+        <v>0.9891443504681513</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030705616413812</v>
+        <v>1.037807939645218</v>
       </c>
       <c r="J21">
-        <v>1.032025860451486</v>
+        <v>1.004515751359682</v>
       </c>
       <c r="K21">
-        <v>1.033358476105955</v>
+        <v>1.013700591462689</v>
       </c>
       <c r="L21">
-        <v>1.042001912252338</v>
+        <v>1.005207290396914</v>
       </c>
       <c r="M21">
-        <v>1.04814356081209</v>
+        <v>1.004334346975364</v>
       </c>
       <c r="N21">
-        <v>1.014665850890287</v>
+        <v>1.005378160227247</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024637917658455</v>
+        <v>0.9698425441064404</v>
       </c>
       <c r="D22">
-        <v>1.029211726939931</v>
+        <v>0.9956730326617108</v>
       </c>
       <c r="E22">
-        <v>1.037693134479832</v>
+        <v>0.9861990381924138</v>
       </c>
       <c r="F22">
-        <v>1.043756612741451</v>
+        <v>0.9848385938083457</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03056339786177</v>
+        <v>1.036578518471353</v>
       </c>
       <c r="J22">
-        <v>1.031553816082289</v>
+        <v>1.001965912259513</v>
       </c>
       <c r="K22">
-        <v>1.032947273164381</v>
+        <v>1.011330697736299</v>
       </c>
       <c r="L22">
-        <v>1.041395721598093</v>
+        <v>1.002048943765901</v>
       </c>
       <c r="M22">
-        <v>1.047436001050998</v>
+        <v>1.000716505584911</v>
       </c>
       <c r="N22">
-        <v>1.014508525618929</v>
+        <v>1.004524683229246</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025022066221062</v>
+        <v>0.9719956769588028</v>
       </c>
       <c r="D23">
-        <v>1.029499761490343</v>
+        <v>0.9972825007373971</v>
       </c>
       <c r="E23">
-        <v>1.038084153009295</v>
+        <v>0.98824173812157</v>
       </c>
       <c r="F23">
-        <v>1.044201062456588</v>
+        <v>0.9871316881198481</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030638998875836</v>
+        <v>1.037234969147644</v>
       </c>
       <c r="J23">
-        <v>1.031804124006916</v>
+        <v>1.003324590707393</v>
       </c>
       <c r="K23">
-        <v>1.033165393596585</v>
+        <v>1.012593920042096</v>
       </c>
       <c r="L23">
-        <v>1.041717104799173</v>
+        <v>1.003731476732266</v>
       </c>
       <c r="M23">
-        <v>1.047811090490071</v>
+        <v>1.002643617471217</v>
       </c>
       <c r="N23">
-        <v>1.014591953659368</v>
+        <v>1.004979454839827</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026534150328385</v>
+        <v>0.9802429546667688</v>
       </c>
       <c r="D24">
-        <v>1.030632239813064</v>
+        <v>1.00345114190173</v>
       </c>
       <c r="E24">
-        <v>1.039624231578539</v>
+        <v>0.9960816470438913</v>
       </c>
       <c r="F24">
-        <v>1.045952119298708</v>
+        <v>0.9959328158668954</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0309320124288</v>
+        <v>1.039716976573454</v>
       </c>
       <c r="J24">
-        <v>1.032788048611571</v>
+        <v>1.008523335697186</v>
       </c>
       <c r="K24">
-        <v>1.034021140430479</v>
+        <v>1.017417921472443</v>
       </c>
       <c r="L24">
-        <v>1.042981694196038</v>
+        <v>1.010177924552526</v>
       </c>
       <c r="M24">
-        <v>1.049287814682203</v>
+        <v>1.010031734277296</v>
       </c>
       <c r="N24">
-        <v>1.014919804333627</v>
+        <v>1.006719585008566</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02828828661135</v>
+        <v>0.9893791745016907</v>
       </c>
       <c r="D25">
-        <v>1.031943315580443</v>
+        <v>1.010288482906375</v>
       </c>
       <c r="E25">
-        <v>1.041412806856019</v>
+        <v>1.004796633398181</v>
       </c>
       <c r="F25">
-        <v>1.047986828825878</v>
+        <v>1.005718005422622</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031262454025071</v>
+        <v>1.042397586222763</v>
       </c>
       <c r="J25">
-        <v>1.033926697956703</v>
+        <v>1.014269335705603</v>
       </c>
       <c r="K25">
-        <v>1.035008014859684</v>
+        <v>1.022729155641052</v>
       </c>
       <c r="L25">
-        <v>1.044447800534072</v>
+        <v>1.017320941372549</v>
       </c>
       <c r="M25">
-        <v>1.051001544546856</v>
+        <v>1.018228200508467</v>
       </c>
       <c r="N25">
-        <v>1.015299015750895</v>
+        <v>1.008642778148623</v>
       </c>
     </row>
   </sheetData>
